--- a/src/main/resources/static/resources/ResultSheet.xlsx
+++ b/src/main/resources/static/resources/ResultSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Cloud\sehicl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Cloud\workspaces\sehicl\sehicl-spring\src\main\resources\static\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="results">Sheet1!$P$5:$S$8</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>Innings of</t>
   </si>
@@ -74,18 +77,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Won By</t>
-  </si>
-  <si>
-    <t>Runs/Wickets</t>
-  </si>
-  <si>
-    <t>Win</t>
-  </si>
-  <si>
-    <t>Tie</t>
-  </si>
-  <si>
     <t>Bat</t>
   </si>
   <si>
@@ -108,6 +99,9 @@
   </si>
   <si>
     <t>Batting</t>
+  </si>
+  <si>
+    <t>Match drawn</t>
   </si>
 </sst>
 </file>
@@ -144,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -232,21 +226,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -264,13 +275,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,56 +602,113 @@
     <col min="9" max="10" width="11.7109375" style="1"/>
     <col min="11" max="11" width="6.42578125" style="1" customWidth="1"/>
     <col min="12" max="13" width="11.7109375" style="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="P2" s="1" t="b">
+        <f>NOT(ISBLANK(C2))</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>E14</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="b">
+        <f>ISNUMBER(E15)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <f>Q2-Q3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="P3" s="1" t="b">
+        <f>NOT(ISBLANK(I2))</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>K14</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="1" t="b">
+        <f>ISNUMBER(K15)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <f>6-K15</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P4" s="1" t="b">
+        <f>AND(P2,P3,R2,R3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>ABS(Q2-Q3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="P5" s="1" t="b">
+        <f>AND(P4,Q4=0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="1">
+        <v>6</v>
+      </c>
+      <c r="S5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -631,7 +721,7 @@
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -643,134 +733,179 @@
       <c r="K6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="P6" s="1" t="b">
+        <f>AND(P5,Q4&gt;0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f>C2&amp;" won by "&amp;S2&amp;" run"&amp;IF(S2&gt;1,"s","")</f>
+        <v xml:space="preserve"> won by 0 run</v>
+      </c>
+      <c r="R6" s="1">
+        <v>12</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="G7" s="6">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="G7" s="4">
         <v>1</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6"/>
+      <c r="P7" s="1" t="b">
+        <f>AND(P4,Q4&lt;0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f>I23&amp;" won by "&amp;S3&amp;" wicket"&amp;IF(S3&gt;1,"s","")</f>
+        <v xml:space="preserve"> won by 6 wickets</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="G8" s="6">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="G8" s="4">
         <v>2</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="P8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="21" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="G9" s="6">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="G9" s="4">
         <v>3</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
+      <c r="P9" s="1" t="str">
+        <f>VLOOKUP(TRUE,results,2, FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="G10" s="6">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="G10" s="4">
         <v>4</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>5</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="G11" s="6">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="G11" s="4">
         <v>5</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>6</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="G12" s="6">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="G12" s="4">
         <v>6</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="J13" s="9" t="s">
+      <c r="E13" s="6"/>
+      <c r="J13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D14" s="5" t="s">
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <f>SUM(E7:E13)</f>
         <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="8">
         <f>SUM(K7:K13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
@@ -778,245 +913,265 @@
       <c r="J15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="8"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>1</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="G18" s="6">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="G18" s="4">
         <v>1</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>2</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="G19" s="6">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="G19" s="4">
         <v>2</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>3</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="G20" s="6">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="G20" s="4">
         <v>3</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="G21" s="6">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="G21" s="4">
         <v>4</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>5</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="G22" s="6">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="G22" s="4">
         <v>5</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>6</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="G23" s="6">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="G23" s="4">
         <v>6</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2" t="s">
+      <c r="C25" s="18" t="str">
+        <f>P9</f>
+        <v/>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="12" t="s">
+      <c r="J27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="13"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H27" s="6" t="s">
+      <c r="K27" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="C28" s="16" t="str">
+        <f>IF(P2,C2,"")</f>
+        <v/>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="17">
+        <f>VLOOKUP(TRUE,results,3)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="17">
+        <f>MIN(6,MAX(0,INT((E14-60)/10)))</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
+        <f>K15</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <f>SUM(H28:J28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="16" t="str">
+        <f>IF(P3,I2,"")</f>
+        <v/>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="17">
+        <f>VLOOKUP(TRUE,results,4)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="17">
+        <f>MIN(6,MAX(0,INT((E15-60)/10))+IF(P7,S3,0))</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="17">
+        <f>E15</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <f>SUM(H29:J29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="6" t="s">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="6">
-        <f>SUM(H28:K28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="6">
-        <f>SUM(H29:K29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C32" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="H3:K3"/>
-    <mergeCell ref="C25:E25"/>
     <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/src/main/resources/static/resources/ResultSheet.xlsx
+++ b/src/main/resources/static/resources/ResultSheet.xlsx
@@ -101,7 +101,7 @@
     <t>Batting</t>
   </si>
   <si>
-    <t>Match drawn</t>
+    <t>Match tied</t>
   </si>
 </sst>
 </file>
@@ -254,17 +254,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -285,25 +281,30 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,7 +588,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,14 +603,16 @@
     <col min="9" max="10" width="11.7109375" style="1"/>
     <col min="11" max="11" width="6.42578125" style="1" customWidth="1"/>
     <col min="12" max="13" width="11.7109375" style="1"/>
-    <col min="14" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -617,16 +620,16 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
@@ -648,18 +651,18 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="H3" s="15" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="H3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
       <c r="P3" s="1" t="b">
         <f>NOT(ISBLANK(I2))</f>
         <v>0</v>
@@ -683,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <f>ABS(Q2-Q3)</f>
+        <f>Q2-Q3</f>
         <v>0</v>
       </c>
     </row>
@@ -734,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="P6" s="1" t="b">
-        <f>AND(P5,Q4&gt;0)</f>
+        <f>AND(P4,Q4&gt;0)</f>
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="str">
@@ -752,23 +755,23 @@
       <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="5"/>
       <c r="G7" s="4">
         <v>1</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="6"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="5"/>
       <c r="P7" s="1" t="b">
         <f>AND(P4,Q4&lt;0)</f>
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="str">
-        <f>I23&amp;" won by "&amp;S3&amp;" wicket"&amp;IF(S3&gt;1,"s","")</f>
+        <f>I2&amp;" won by "&amp;S3&amp;" wicket"&amp;IF(S3&gt;1,"s","")</f>
         <v xml:space="preserve"> won by 6 wickets</v>
       </c>
       <c r="R7" s="1">
@@ -782,21 +785,21 @@
       <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="5"/>
       <c r="G8" s="4">
         <v>2</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="5"/>
       <c r="P8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="Q8" s="21" t="str">
+      <c r="Q8" s="14" t="str">
         <f>""</f>
         <v/>
       </c>
@@ -811,17 +814,17 @@
       <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="5"/>
       <c r="G9" s="4">
         <v>3</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="6"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="5"/>
       <c r="P9" s="1" t="str">
         <f>VLOOKUP(TRUE,results,2, FALSE)</f>
         <v/>
@@ -831,72 +834,72 @@
       <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="5"/>
       <c r="G10" s="4">
         <v>4</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="6"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>5</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="5"/>
       <c r="G11" s="4">
         <v>5</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="6"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>6</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="5"/>
       <c r="G12" s="4">
         <v>6</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="6"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="J13" s="7" t="s">
+      <c r="E13" s="5"/>
+      <c r="J13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="6"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <f>SUM(E7:E13)</f>
         <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <f>SUM(K7:K13)</f>
         <v>0</v>
       </c>
@@ -905,7 +908,7 @@
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
@@ -913,7 +916,7 @@
       <c r="J15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="2" t="s">
         <v>10</v>
       </c>
@@ -927,7 +930,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -956,125 +959,125 @@
       <c r="A18" s="4">
         <v>1</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="5"/>
       <c r="G18" s="4">
         <v>1</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="6"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="5"/>
       <c r="G19" s="4">
         <v>2</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="6"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>3</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="5"/>
       <c r="G20" s="4">
         <v>3</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="6"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="5"/>
       <c r="G21" s="4">
         <v>4</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="6"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>5</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="5"/>
       <c r="G22" s="4">
         <v>5</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="6"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>6</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="5"/>
       <c r="G23" s="4">
         <v>6</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="6"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="18" t="str">
+      <c r="C25" s="19" t="str">
         <f>P9</f>
         <v/>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="21"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H27" s="4" t="s">
@@ -1094,23 +1097,23 @@
       <c r="B28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="16" t="str">
+      <c r="C28" s="17" t="str">
         <f>IF(P2,C2,"")</f>
         <v/>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="17">
-        <f>VLOOKUP(TRUE,results,3)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="17">
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="16">
+        <f>VLOOKUP(TRUE,results,3, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="16">
         <f>MIN(6,MAX(0,INT((E14-60)/10)))</f>
         <v>0</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="16">
         <f>K15</f>
         <v>0</v>
       </c>
@@ -1123,23 +1126,23 @@
       <c r="B29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="16" t="str">
+      <c r="C29" s="17" t="str">
         <f>IF(P3,I2,"")</f>
         <v/>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="17">
-        <f>VLOOKUP(TRUE,results,4)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="17">
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16">
+        <f>VLOOKUP(TRUE,results,4, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="16">
         <f>MIN(6,MAX(0,INT((E15-60)/10))+IF(P7,S3,0))</f>
         <v>0</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="16">
         <f>E15</f>
         <v>0</v>
       </c>
@@ -1164,6 +1167,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C2:D2"/>

--- a/src/main/resources/static/resources/ResultSheet.xlsx
+++ b/src/main/resources/static/resources/ResultSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="10665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="5550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,6 +289,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -297,14 +305,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,7 +588,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,16 +620,16 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
@@ -651,18 +651,18 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="H3" s="18" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="H3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
       <c r="P3" s="1" t="b">
         <f>NOT(ISBLANK(I2))</f>
         <v>0</v>
@@ -1055,18 +1055,18 @@
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="19" t="str">
+      <c r="C25" s="21" t="str">
         <f>P9</f>
         <v/>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="23"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>

--- a/src/main/resources/static/resources/ResultSheet.xlsx
+++ b/src/main/resources/static/resources/ResultSheet.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="results">Sheet1!$P$5:$S$8</definedName>
+    <definedName name="results">Sheet1!$P$5:$U$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>Innings of</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>Match tied</t>
+  </si>
+  <si>
+    <t>b1 res pts</t>
+  </si>
+  <si>
+    <t>b2 res pts</t>
+  </si>
+  <si>
+    <t>b1 bat pts</t>
+  </si>
+  <si>
+    <t>b2 bat pts</t>
   </si>
 </sst>
 </file>
@@ -585,11 +597,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -604,19 +614,20 @@
     <col min="11" max="11" width="6.42578125" style="1" customWidth="1"/>
     <col min="12" max="13" width="11.7109375" style="1"/>
     <col min="14" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="13.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="19" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="21" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -650,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
@@ -680,7 +691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P4" s="1" t="b">
         <f>AND(P2,P3,R2,R3)</f>
         <v>0</v>
@@ -689,8 +700,20 @@
         <f>Q2-Q3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
@@ -710,8 +733,16 @@
       <c r="S5" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5" s="1">
+        <f>MIN(6,INT(MAX(0,Q$2-60)/10))</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <f>MIN(6,INT(MAX(0,Q$3-60)/10))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -750,8 +781,16 @@
       <c r="S6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" s="1">
+        <f>MIN(6,INT(MAX(0,Q$2-60)/10))</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <f>MIN(6,INT(MAX(0,Q$3-60)/10))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -780,8 +819,16 @@
       <c r="S7" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7" s="1">
+        <f>MIN(6,INT(MAX(0,Q$2-60)/10))</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <f>MIN(6,INT(MAX(0,Q$3-60)/10)+S3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -809,8 +856,14 @@
       <c r="S8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>3</v>
       </c>
@@ -830,7 +883,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>4</v>
       </c>
@@ -846,7 +899,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -862,7 +915,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>6</v>
       </c>
@@ -878,7 +931,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
@@ -888,7 +941,7 @@
       </c>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
@@ -904,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
@@ -921,7 +974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
@@ -1110,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="16">
-        <f>MIN(6,MAX(0,INT((E14-60)/10)))</f>
+        <f>VLOOKUP(TRUE,results,5, FALSE)</f>
         <v>0</v>
       </c>
       <c r="J28" s="16">
@@ -1139,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="16">
-        <f>MIN(6,MAX(0,INT((E15-60)/10))+IF(P7,S3,0))</f>
+        <f>VLOOKUP(TRUE,results,6, FALSE)</f>
         <v>0</v>
       </c>
       <c r="J29" s="16">

--- a/src/main/resources/static/resources/ResultSheet.xlsx
+++ b/src/main/resources/static/resources/ResultSheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>Innings of</t>
   </si>
@@ -86,15 +86,6 @@
     <t>Points</t>
   </si>
   <si>
-    <t>Bonus Points:                   Win = 12 Pts, Tie = 6 Pts, Bowling 1 Pt for every wicket taken, Batting 1 Pt on reaching 70,80,90,100,110,120, to a maximum of 6 Pts.</t>
-  </si>
-  <si>
-    <t>Teams batting second and winning an additional point to make up to a maximum of 6 batting points for every wicket in hand</t>
-  </si>
-  <si>
-    <t>at the close.</t>
-  </si>
-  <si>
     <t>Only boxes coloured green can be filled in</t>
   </si>
   <si>
@@ -114,6 +105,18 @@
   </si>
   <si>
     <t>b2 bat pts</t>
+  </si>
+  <si>
+    <t>Points calculated as follows:</t>
+  </si>
+  <si>
+    <t>12 points for a win, 6 points for a tie, 0 points for a loss.</t>
+  </si>
+  <si>
+    <t>Batting points: 1 point for every 10 runs scored in excess of 60, plus (only for teams batting second and winning) 1 point for each wicket in hand. A maximum of 6 points per innings.</t>
+  </si>
+  <si>
+    <t>Bowling points: 1 point per wicket taken. If the batting side has fewer than six players, and the missing player(s) would have been required to bat if present, a wicket is counted, and a bowling bonus point awarded, for each missing player.</t>
   </si>
 </sst>
 </file>
@@ -266,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -317,6 +320,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,7 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U33"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,7 +634,7 @@
     <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -701,31 +711,31 @@
         <v>0</v>
       </c>
       <c r="R4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P5" s="1" t="b">
         <f>AND(P4,Q4=0)</f>
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R5" s="1">
         <v>6</v>
@@ -1206,22 +1216,45 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="25"/>
+    </row>
+    <row r="34" spans="3:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="C33:K33"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="I2:J2"/>
@@ -1230,7 +1263,7 @@
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C25:K25"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/static/resources/ResultSheet.xlsx
+++ b/src/main/resources/static/resources/ResultSheet.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$L$29</definedName>
     <definedName name="results">Sheet1!$P$5:$U$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -301,6 +302,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -320,10 +325,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,7 +610,9 @@
   </sheetPr>
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -641,16 +644,16 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
       <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
@@ -672,18 +675,18 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="H3" s="20" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="H3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
       <c r="P3" s="1" t="b">
         <f>NOT(ISBLANK(I2))</f>
         <v>0</v>
@@ -1118,18 +1121,18 @@
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="21" t="str">
+      <c r="C25" s="23" t="str">
         <f>P9</f>
         <v/>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="25"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
@@ -1160,12 +1163,12 @@
       <c r="B28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="17" t="str">
+      <c r="C28" s="19" t="str">
         <f>IF(P2,C2,"")</f>
         <v/>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="16">
@@ -1189,12 +1192,12 @@
       <c r="B29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="17" t="str">
+      <c r="C29" s="19" t="str">
         <f>IF(P3,I2,"")</f>
         <v/>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="16">
@@ -1225,31 +1228,31 @@
       </c>
     </row>
     <row r="33" spans="3:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="25"/>
-    </row>
-    <row r="34" spans="3:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="24" t="s">
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="3:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1263,7 +1266,7 @@
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C25:K25"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/static/resources/ResultSheet.xlsx
+++ b/src/main/resources/static/resources/ResultSheet.xlsx
@@ -610,8 +610,8 @@
   </sheetPr>
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,6 +1255,7 @@
       <c r="K34" s="18"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="C34:K34"/>
     <mergeCell ref="C33:K33"/>
